--- a/Deliverables/sprint-02/planning-documents.xlsx
+++ b/Deliverables/sprint-02/planning-documents.xlsx
@@ -24,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="306">
   <si>
     <t>Project Name</t>
   </si>
   <si>
-    <t>rtdip-timeseries-forecasting</t>
+    <t>RTDIP Timeseries Forecasting</t>
   </si>
   <si>
     <t>Online team meeting</t>
@@ -68,15 +68,12 @@
     <t>Team T-shirt (white)</t>
   </si>
   <si>
-    <t>https://www.shirtinator.de/s/hxP8hSnaRtySUDnzQlWstg</t>
+    <t>...</t>
   </si>
   <si>
     <t>Team T-shirt (black)</t>
   </si>
   <si>
-    <t>https://www.shirtinator.de/s/8r9ZDTMpQdiFofT4Mu9cUw</t>
-  </si>
-  <si>
     <t>Additional materials</t>
   </si>
   <si>
@@ -86,7 +83,7 @@
     <t>Team maling list</t>
   </si>
   <si>
-    <t>oss-amos-proj3@lists.fau.de</t>
+    <t>oss-amos-projX@lists.fau.de</t>
   </si>
   <si>
     <t>Happines Index App</t>
@@ -311,7 +308,7 @@
     <t>Coordination norms</t>
   </si>
   <si>
-    <t xml:space="preserve">seperate branches for issues, second person review </t>
+    <t xml:space="preserve">Seperate branches for issues, second person review </t>
   </si>
   <si>
     <t>We balance workload among the team</t>
@@ -371,9 +368,6 @@
     <t>Christoph Huy</t>
   </si>
   <si>
-    <t xml:space="preserve">Mehdi Khabouze </t>
-  </si>
-  <si>
     <t>Product Vision</t>
   </si>
   <si>
@@ -449,9 +443,6 @@
     <t>Real burn-down</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Features</t>
   </si>
   <si>
@@ -473,16 +464,448 @@
     <t>Link / reference</t>
   </si>
   <si>
-    <t>Context</t>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t>RTIP - Forecasting and Anomaly Detection</t>
+  </si>
+  <si>
+    <t>System Components</t>
+  </si>
+  <si>
+    <t>First Level Dependencies and Runtimes</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.1.0 (Sprint02)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>28.10.2025</t>
+  </si>
+  <si>
+    <t>Last updated</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Version</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>License</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Forecasting</t>
+  </si>
+  <si>
+    <t>ML Component</t>
+  </si>
+  <si>
+    <t>src/sdk/python/rtdip_sdk/pipelines/forecasting</t>
+  </si>
+  <si>
+    <t>Train / Prediction with Forecasting Models.</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>3.12.11</t>
+  </si>
+  <si>
+    <t>PSF</t>
+  </si>
+  <si>
+    <t>Python Software Foundation</t>
+  </si>
+  <si>
+    <t>Core runtime for all SDK and ML components.</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>Development / Publish</t>
+  </si>
+  <si>
+    <t>2.43.0</t>
+  </si>
+  <si>
+    <t>Distributed version control system used for source code management and collaborative development.</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>ML Pre-Processing</t>
+  </si>
+  <si>
+    <t>src/sdk/python/rtdip_sdk/pipelines/transformers/spark/machine_learning</t>
+  </si>
+  <si>
+    <t>Data / Feature pre-processing for ML components.</t>
+  </si>
+  <si>
+    <t>OpenJDK</t>
+  </si>
+  <si>
+    <t>11.0.27</t>
+  </si>
+  <si>
+    <t>GPL v2 + Classpath Exception</t>
+  </si>
+  <si>
+    <t>OpenJDK Community</t>
+  </si>
+  <si>
+    <t>Java Virtual Machine required for Apache Spark and Delta Lake.</t>
+  </si>
+  <si>
+    <t>VS Code</t>
+  </si>
+  <si>
+    <t>1.105.1</t>
+  </si>
+  <si>
+    <t>Integrated development environment used for coding, debugging, documentation editing, and Git integration.</t>
+  </si>
+  <si>
+    <t>Data Manipulator</t>
+  </si>
+  <si>
+    <t>Data Quality</t>
+  </si>
+  <si>
+    <t>src/sdk/python/rtdip_sdk/pipelines/data_quality/data_manipulation</t>
+  </si>
+  <si>
+    <t>Alters data to ensure data quality.</t>
+  </si>
+  <si>
+    <t>Apache Spark (PySpark)</t>
+  </si>
+  <si>
+    <t>3.5.5</t>
+  </si>
+  <si>
+    <t>Apache-2.0</t>
+  </si>
+  <si>
+    <t>Apache Software Foundation</t>
+  </si>
+  <si>
+    <t>Distributed compute engine for ETL, data quality and forecasting pipelines.</t>
+  </si>
+  <si>
+    <t>Conda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development / Build </t>
+  </si>
+  <si>
+    <t>25.5.1</t>
+  </si>
+  <si>
+    <t>Environment and package management system ensuring reproducible builds and dependency control.</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>src/sdk/python/rtdip_sdk/pipelines/data_quality/monitoring</t>
+  </si>
+  <si>
+    <t>Monitors quality of time-series data.</t>
+  </si>
+  <si>
+    <t>Delta Lake (delta-spark)</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>Linux Foundation / Databricks Open Source</t>
+  </si>
+  <si>
+    <t>Transactional storage layer enabling ACID and time-travel on Parquet data.</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Data Extraction</t>
+  </si>
+  <si>
+    <t>src/sdk/python/rtdip_sdk/queries</t>
+  </si>
+  <si>
+    <t>Querries to extract data from sources.</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>BSD-3-Clause</t>
+  </si>
+  <si>
+    <t>PyData / NumFOCUS</t>
+  </si>
+  <si>
+    <t>Core data-processing library providing DataFrame operations and ETL utilities.</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>Connects query to data source.</t>
+  </si>
+  <si>
+    <t>polars</t>
+  </si>
+  <si>
+    <t>0.20.31</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>Polars Contributors</t>
+  </si>
+  <si>
+    <t>Fast DataFrame engine written in Rust for high-performance data manipulation.</t>
+  </si>
+  <si>
+    <t>Components specified in Repo</t>
+  </si>
+  <si>
+    <t>src/sdk/python/rtdip_sdk/pipelines/sources</t>
+  </si>
+  <si>
+    <t>Ingest data source.</t>
+  </si>
+  <si>
+    <t>pyarrow</t>
+  </si>
+  <si>
+    <t>15.0.2</t>
+  </si>
+  <si>
+    <t>Columnar data access and Parquet I/O layer for Spark and Delta components.</t>
+  </si>
+  <si>
+    <t>scikit-learn</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>Scikit-learn Developers / NumFOCUS</t>
+  </si>
+  <si>
+    <t>Machine-learning algorithms and preprocessing utilities for forecasting and modeling.</t>
+  </si>
+  <si>
+    <t>Delta Storage</t>
+  </si>
+  <si>
+    <t>Provides raw time-series data for ingestion and processing.</t>
+  </si>
+  <si>
+    <t>Upcomming</t>
+  </si>
+  <si>
+    <t>statsmodels</t>
+  </si>
+  <si>
+    <t>0.14.5</t>
+  </si>
+  <si>
+    <t>Statsmodels Developers</t>
+  </si>
+  <si>
+    <t>Statistical modeling and time-series forecasting framework (e.g., SARIMA).</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>Retrieves and streams data from Delta Storage to downstream components.</t>
+  </si>
+  <si>
+    <t>Anomaly Detection</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>Detects anomalies in time-series predictions.</t>
+  </si>
+  <si>
+    <t>pmdarima</t>
+  </si>
+  <si>
+    <t>2.0.4</t>
+  </si>
+  <si>
+    <t>Alkha Management Group</t>
+  </si>
+  <si>
+    <t>Automated ARIMA model selection and time-series forecasting.</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Validates and monitors incoming time-series data quality during ingestion.</t>
+  </si>
+  <si>
+    <t>delta-spark</t>
+  </si>
+  <si>
+    <t>Linux Foundation / Databricks</t>
+  </si>
+  <si>
+    <t>Delta Lake Python API for ACID table management and versioned data.</t>
+  </si>
+  <si>
+    <t>Data Manipulation</t>
+  </si>
+  <si>
+    <t>Cleanses, filters, or aggregates data before model processing.</t>
+  </si>
+  <si>
+    <t>ML Artifacts</t>
+  </si>
+  <si>
+    <t>databricks-sql-connector</t>
+  </si>
+  <si>
+    <t>3.7.1</t>
+  </si>
+  <si>
+    <t>Databricks Inc.</t>
+  </si>
+  <si>
+    <t>JDBC-style SQL connector for querying Delta and Databricks tables.</t>
+  </si>
+  <si>
+    <t>Transforms and prepares data for ML model consumption (feature generation).</t>
+  </si>
+  <si>
+    <t>fastapi</t>
+  </si>
+  <si>
+    <t>0.119.0</t>
+  </si>
+  <si>
+    <t>Sebastián Ramírez / Open Source</t>
+  </si>
+  <si>
+    <t>High-performance web framework for building REST APIs and model endpoints.</t>
+  </si>
+  <si>
+    <t>Generates forecasts or predictions from processed features for visualization or further analysis.</t>
+  </si>
+  <si>
+    <t>uvicorn</t>
+  </si>
+  <si>
+    <t>0.37.0</t>
+  </si>
+  <si>
+    <t>Encode OSS</t>
+  </si>
+  <si>
+    <t>ASGI server providing runtime execution for FastAPI endpoints.</t>
+  </si>
+  <si>
+    <t>azure-core / azure-identity / azure-storage-blob</t>
+  </si>
+  <si>
+    <t>1.35 +</t>
+  </si>
+  <si>
+    <t>Microsoft Azure SDK</t>
+  </si>
+  <si>
+    <t>Core, authentication and blob-storage SDKs for Azure integration.</t>
+  </si>
+  <si>
+    <t>pytest / pytest-cov</t>
+  </si>
+  <si>
+    <t>7.4 / 4.1</t>
+  </si>
+  <si>
+    <t>Pytest Community</t>
+  </si>
+  <si>
+    <t>Unit and integration testing framework with coverage support.</t>
+  </si>
+  <si>
+    <t>black / isort / pylint</t>
+  </si>
+  <si>
+    <t>25.1 / 5.13 / 2.17</t>
+  </si>
+  <si>
+    <t>MIT / BSD-3</t>
+  </si>
+  <si>
+    <t>Python Software Foundation / PyCQA</t>
+  </si>
+  <si>
+    <t>Code formatting and linting for CI quality assurance.</t>
+  </si>
+  <si>
+    <t>mkdocs / mkdocs-material / mkdocstrings</t>
+  </si>
+  <si>
+    <t>1.6 / 9.5 / 0.25</t>
+  </si>
+  <si>
+    <t>MkDocs Community</t>
+  </si>
+  <si>
+    <t>Documentation generation system for SDK and forecasting components.</t>
   </si>
   <si>
     <t>Value</t>
@@ -529,35 +952,11 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font/>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF56A3F1"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF181A1B"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="'Sans Serif'"/>
     </font>
     <font>
       <b/>
@@ -567,8 +966,70 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF56A3F1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF181A1B"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
+      <b/>
+    </font>
+    <font>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
       <b/>
@@ -626,332 +1087,533 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="148">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="8" fontId="17" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1122,7 +1784,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B20" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="2">
     <tableColumn name="Project Name" id="1"/>
-    <tableColumn name="rtdip-timeseries-forecasting" id="2"/>
+    <tableColumn name="RTDIP Timeseries Forecasting" id="2"/>
   </tableColumns>
   <tableStyleInfo name="Project Data-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -1151,16 +1813,36 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F20" displayName="Table_12" name="Table_12" id="12">
-  <tableColumns count="6">
-    <tableColumn name="#" id="1"/>
-    <tableColumn name="Context" id="2"/>
-    <tableColumn name="Name" id="3"/>
-    <tableColumn name="Version" id="4"/>
-    <tableColumn name="License" id="5"/>
-    <tableColumn name="Comment" id="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:U26" displayName="Table_12" name="Table_12" id="12">
+  <tableColumns count="21">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+    <tableColumn name="Column5" id="5"/>
+    <tableColumn name="Column6" id="6"/>
+    <tableColumn name="Column7" id="7"/>
+    <tableColumn name="Column8" id="8"/>
+    <tableColumn name="Column9" id="9"/>
+    <tableColumn name="Column10" id="10"/>
+    <tableColumn name="Column11" id="11"/>
+    <tableColumn name="Column12" id="12"/>
+    <tableColumn name="Column13" id="13"/>
+    <tableColumn name="Column14" id="14"/>
+    <tableColumn name="Column15" id="15"/>
+    <tableColumn name="Column16" id="16"/>
+    <tableColumn name="Column17" id="17"/>
+    <tableColumn name="Column18" id="18"/>
+    <tableColumn name="Column19" id="19"/>
+    <tableColumn name="Column20" id="20"/>
+    <tableColumn name="Column21" id="21"/>
   </tableColumns>
   <tableStyleInfo name="Bill of Materials-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
 </table>
 </file>
 
@@ -1289,7 +1971,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
     <row r="3">
@@ -1301,34 +1983,34 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1336,27 +2018,27 @@
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1364,48 +2046,48 @@
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
   </sheetData>
@@ -1414,17 +2096,15 @@
     <hyperlink r:id="rId2" ref="B8"/>
     <hyperlink r:id="rId3" ref="B9"/>
     <hyperlink r:id="rId4" ref="B10"/>
-    <hyperlink r:id="rId5" ref="B12"/>
-    <hyperlink r:id="rId6" ref="B13"/>
-    <hyperlink r:id="rId7" ref="B15"/>
-    <hyperlink r:id="rId8" ref="B19"/>
+    <hyperlink r:id="rId5" ref="B15"/>
+    <hyperlink r:id="rId6" ref="B19"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1448,405 +2128,405 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="D1" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="E1" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="F1" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="G1" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="48" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="60"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="66" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="49"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="49"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="57">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69">
         <f>sum(D8:D13)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="69">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="49"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="61" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="62">
+      <c r="A9" s="74">
         <v>1.0</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="57">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69">
         <f>sum(D16:D21)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="69">
         <f>$D$5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="69">
         <f>sum(F16:F21)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="69">
         <f>$D$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49">
+      <c r="A10" s="60">
         <f t="shared" ref="A10:A11" si="1">A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="63">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="75">
         <f>sum(D22:D27)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="75">
         <f t="shared" ref="E10:E12" si="2">E9-D9</f>
         <v>0</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="75">
         <f>sum(F22:F27)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="75">
         <f t="shared" ref="G10:G12" si="3">G9-F9</f>
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="62">
+      <c r="A11" s="74">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="57">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69">
         <f>sum(D28:D33)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="69">
         <f>sum(F28:F33)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="63">
+      <c r="A12" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="63">
+      <c r="F12" s="62"/>
+      <c r="G12" s="75">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="62"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14">
-      <c r="A14" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
+      <c r="A14" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16">
-      <c r="A16" s="69">
+      <c r="A16" s="81">
         <f>A9</f>
         <v>1</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
     </row>
     <row r="17">
-      <c r="A17" s="62"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
     </row>
     <row r="18">
-      <c r="A18" s="49"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="50"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="61"/>
     </row>
     <row r="19">
-      <c r="A19" s="62"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20">
-      <c r="A20" s="73"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="65"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="77"/>
     </row>
     <row r="21">
-      <c r="A21" s="62"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22">
-      <c r="A22" s="69">
+      <c r="A22" s="81">
         <f>A10</f>
         <v>2</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
     </row>
     <row r="23">
-      <c r="A23" s="62"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
     </row>
     <row r="24">
-      <c r="A24" s="73"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="65"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="77"/>
     </row>
     <row r="25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="26">
-      <c r="A26" s="73"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="65"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27">
-      <c r="A27" s="62"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28">
-      <c r="A28" s="69">
+      <c r="A28" s="81">
         <f>A11</f>
         <v>3</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29">
-      <c r="A29" s="62"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
     </row>
     <row r="30">
-      <c r="A30" s="73"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
     </row>
     <row r="31">
-      <c r="A31" s="62"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
     </row>
     <row r="32">
-      <c r="A32" s="73"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
     </row>
     <row r="33">
-      <c r="A33" s="62"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="69"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34">
-      <c r="A34" s="73"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1874,132 +2554,132 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>146</v>
+      <c r="A1" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
     </row>
     <row r="11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
     </row>
     <row r="15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
     </row>
     <row r="17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
     </row>
     <row r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2027,88 +2707,88 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>148</v>
+      <c r="A1" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
     </row>
     <row r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
     </row>
     <row r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2131,185 +2811,1044 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.38"/>
-    <col customWidth="1" min="2" max="2" width="25.13"/>
+    <col customWidth="1" min="1" max="1" width="12.38"/>
+    <col customWidth="1" min="2" max="2" width="32.25"/>
     <col customWidth="1" min="3" max="3" width="37.63"/>
-    <col customWidth="1" min="4" max="4" width="9.5"/>
-    <col customWidth="1" min="5" max="5" width="12.63"/>
-    <col customWidth="1" min="6" max="6" width="37.63"/>
+    <col customWidth="1" min="4" max="4" width="19.25"/>
+    <col customWidth="1" min="5" max="5" width="16.63"/>
+    <col customWidth="1" min="6" max="6" width="59.25"/>
+    <col customWidth="1" min="7" max="7" width="42.0"/>
+    <col customWidth="1" min="8" max="21" width="37.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="J1" s="94"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B2" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
     </row>
     <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="D4" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="98"/>
+      <c r="I4" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="M4" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" s="98"/>
+      <c r="P4" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q4" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="R4" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="S4" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="103" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="98"/>
+      <c r="I5" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="N5" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="O5" s="98"/>
+      <c r="P5" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="R5" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="S5" s="105" t="s">
+        <v>177</v>
+      </c>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
     </row>
     <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="98"/>
+      <c r="I6" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="L6" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="N6" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="O6" s="98"/>
+      <c r="P6" s="104" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q6" s="107" t="s">
+        <v>163</v>
+      </c>
+      <c r="R6" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="S6" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
     </row>
     <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="98"/>
+      <c r="I7" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="N7" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="O7" s="98"/>
+      <c r="P7" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="R7" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="S7" s="105" t="s">
+        <v>203</v>
+      </c>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="98"/>
+      <c r="I8" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="J8" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="N8" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="92" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="103" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="98"/>
+      <c r="I9" s="104" t="s">
+        <v>215</v>
+      </c>
+      <c r="J9" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K9" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="L9" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="N9" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="108" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="109" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="98"/>
+      <c r="I10" s="104" t="s">
+        <v>224</v>
+      </c>
+      <c r="J10" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K10" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="M10" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="N10" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="O10" s="98"/>
+      <c r="P10" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
     </row>
     <row r="11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="98"/>
+      <c r="I11" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="L11" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="M11" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="O11" s="98"/>
+      <c r="P11" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q11" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="R11" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="S11" s="114" t="s">
+        <v>159</v>
+      </c>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="104" t="s">
+        <v>235</v>
+      </c>
+      <c r="J12" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K12" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="L12" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="M12" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="N12" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="O12" s="98"/>
+      <c r="P12" s="116" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q12" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="R12" s="116" t="s">
+        <v>222</v>
+      </c>
+      <c r="S12" s="116" t="s">
+        <v>240</v>
+      </c>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
     </row>
     <row r="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="104" t="s">
+        <v>242</v>
+      </c>
+      <c r="J13" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="M13" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="N13" s="105" t="s">
+        <v>245</v>
+      </c>
+      <c r="O13" s="98"/>
+      <c r="P13" s="116" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q13" s="109" t="s">
+        <v>212</v>
+      </c>
+      <c r="R13" s="116" t="s">
+        <v>230</v>
+      </c>
+      <c r="S13" s="116" t="s">
+        <v>247</v>
+      </c>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
     </row>
     <row r="14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="108" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="109" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="109" t="s">
+        <v>250</v>
+      </c>
+      <c r="H14" s="98"/>
+      <c r="I14" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="J14" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="105" t="s">
+        <v>252</v>
+      </c>
+      <c r="L14" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="M14" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="N14" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="O14" s="98"/>
+      <c r="P14" s="116" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q14" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="R14" s="116" t="s">
+        <v>205</v>
+      </c>
+      <c r="S14" s="116" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="104" t="s">
+        <v>257</v>
+      </c>
+      <c r="J15" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K15" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="M15" s="105" t="s">
+        <v>258</v>
+      </c>
+      <c r="N15" s="105" t="s">
+        <v>259</v>
+      </c>
+      <c r="O15" s="98"/>
+      <c r="P15" s="116" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q15" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="R15" s="116" t="s">
+        <v>193</v>
+      </c>
+      <c r="S15" s="116" t="s">
+        <v>261</v>
+      </c>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
     </row>
     <row r="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="104" t="s">
+        <v>263</v>
+      </c>
+      <c r="J16" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K16" s="105" t="s">
+        <v>264</v>
+      </c>
+      <c r="L16" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="N16" s="105" t="s">
+        <v>266</v>
+      </c>
+      <c r="O16" s="98"/>
+      <c r="P16" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="R16" s="116" t="s">
+        <v>181</v>
+      </c>
+      <c r="S16" s="116" t="s">
+        <v>267</v>
+      </c>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
     </row>
     <row r="17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="104" t="s">
+        <v>268</v>
+      </c>
+      <c r="J17" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="L17" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="M17" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="N17" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="O17" s="98"/>
+      <c r="P17" s="116" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q17" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="R17" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="S17" s="116" t="s">
+        <v>272</v>
+      </c>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="98"/>
+      <c r="I18" s="104" t="s">
+        <v>273</v>
+      </c>
+      <c r="J18" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K18" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="L18" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="M18" s="105" t="s">
+        <v>275</v>
+      </c>
+      <c r="N18" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
     </row>
     <row r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="104" t="s">
+        <v>277</v>
+      </c>
+      <c r="J19" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" s="105" t="s">
+        <v>278</v>
+      </c>
+      <c r="L19" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="M19" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="N19" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
     </row>
     <row r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="104" t="s">
+        <v>281</v>
+      </c>
+      <c r="J20" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K20" s="105" t="s">
+        <v>282</v>
+      </c>
+      <c r="L20" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="M20" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="N20" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="104" t="s">
+        <v>285</v>
+      </c>
+      <c r="J21" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" s="105" t="s">
+        <v>286</v>
+      </c>
+      <c r="L21" s="105" t="s">
+        <v>287</v>
+      </c>
+      <c r="M21" s="105" t="s">
+        <v>288</v>
+      </c>
+      <c r="N21" s="105" t="s">
+        <v>289</v>
+      </c>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="104" t="s">
+        <v>290</v>
+      </c>
+      <c r="J22" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="L22" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" s="105" t="s">
+        <v>292</v>
+      </c>
+      <c r="N22" s="105" t="s">
+        <v>293</v>
+      </c>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="98"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="98"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2338,280 +3877,304 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="80" t="str">
+      <c r="A1" s="121" t="str">
         <f>'Project Team'!A1</f>
         <v>Last Name</v>
       </c>
-      <c r="B1" s="80" t="str">
+      <c r="B1" s="121" t="str">
         <f>'Project Team'!B1</f>
         <v>First Name</v>
       </c>
-      <c r="C1" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
+      <c r="C1" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="123"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2">
-      <c r="A2" s="86" t="str">
+      <c r="A2" s="127" t="str">
+        <f>'Project Team'!A2</f>
+        <v>Böhm</v>
+      </c>
+      <c r="B2" s="127" t="str">
+        <f>'Project Team'!B2</f>
+        <v>Luca</v>
+      </c>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
+        <f>average(C2:C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" s="131" t="str">
+        <f>if(stdev(C2:C7) &gt; 0,"NOK", "OK")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="133" t="str">
+        <f>'Project Team'!A3</f>
+        <v>Meusling</v>
+      </c>
+      <c r="B3" s="133" t="str">
+        <f>'Project Team'!B3</f>
+        <v>Patrick</v>
+      </c>
+      <c r="C3" s="128"/>
+      <c r="D3" s="134"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="127" t="str">
+        <f>'Project Team'!A4</f>
+        <v>Arifin</v>
+      </c>
+      <c r="B4" s="127" t="str">
+        <f>'Project Team'!B4</f>
+        <v>Hafidz</v>
+      </c>
+      <c r="C4" s="136"/>
+      <c r="D4" s="129"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="133" t="str">
         <f>'Project Team'!A5</f>
         <v>Huy</v>
       </c>
-      <c r="B2" s="86" t="str">
+      <c r="B5" s="133" t="str">
         <f>'Project Team'!B5</f>
         <v>Christoph</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="str">
-        <f>average(C2:C10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F2" s="90" t="str">
-        <f>if(stdev(C2:C7) &gt; 0,"NOK", "OK")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="92" t="str">
+      <c r="C5" s="137"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="127" t="str">
         <f>'Project Team'!A6</f>
         <v>Selbig</v>
       </c>
-      <c r="B3" s="92" t="str">
+      <c r="B6" s="127" t="str">
         <f>'Project Team'!B6</f>
         <v>Simon</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="86" t="str">
+      <c r="C6" s="136"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="140">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="141" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="133" t="str">
         <f>'Project Team'!A7</f>
         <v>Haseeb</v>
       </c>
-      <c r="B4" s="86" t="str">
+      <c r="B7" s="133" t="str">
         <f>'Project Team'!B7</f>
         <v>Abdul</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="92" t="str">
+      <c r="C7" s="136"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="140">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="141" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="127" t="str">
         <f>'Project Team'!A8</f>
         <v>Pohnke</v>
       </c>
-      <c r="B5" s="92" t="str">
+      <c r="B8" s="127" t="str">
         <f>'Project Team'!B8</f>
         <v>Hannes</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="86" t="str">
+      <c r="C8" s="137"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="141" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="133" t="str">
         <f>'Project Team'!A9</f>
         <v>Jokiel</v>
       </c>
-      <c r="B6" s="86" t="str">
+      <c r="B9" s="133" t="str">
         <f>'Project Team'!B9</f>
         <v>Rene</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="97">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="92" t="str">
+      <c r="C9" s="137"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="140">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="127" t="str">
         <f>'Project Team'!A10</f>
         <v>Khabouze</v>
       </c>
-      <c r="B7" s="92" t="str">
+      <c r="B10" s="127" t="str">
         <f>'Project Team'!B10</f>
         <v>Mehdi</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="97">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="98" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-    </row>
-    <row r="8">
-      <c r="C8" s="99"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-    </row>
-    <row r="9">
-      <c r="C9" s="99"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="97">
-        <v>3.0</v>
-      </c>
-      <c r="F9" s="98" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-    </row>
-    <row r="10">
-      <c r="C10" s="99"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97">
+      <c r="C10" s="128"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="140">
         <v>5.0</v>
       </c>
-      <c r="F10" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
+      <c r="F10" s="141" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
     </row>
     <row r="11">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="97">
+      <c r="A11" s="133"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="140">
         <v>8.0</v>
       </c>
-      <c r="F11" s="98" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
+      <c r="F11" s="141" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
     </row>
     <row r="12">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="97">
+      <c r="A12" s="127"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140">
         <v>13.0</v>
       </c>
-      <c r="F12" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
+      <c r="F12" s="141" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
     </row>
     <row r="13">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
     </row>
     <row r="14">
-      <c r="A14" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
+      <c r="A14" s="142" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
     </row>
     <row r="15">
-      <c r="A15" s="103"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
     </row>
     <row r="16">
-      <c r="A16" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
+      <c r="A16" s="145" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
     </row>
     <row r="17">
-      <c r="A17" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
+      <c r="A17" s="147" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
     </row>
     <row r="18">
-      <c r="A18" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
+      <c r="A18" s="145" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
     </row>
     <row r="19">
-      <c r="A19" s="103"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
+      <c r="A19" s="144"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
     </row>
     <row r="20">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
+      <c r="A20" s="146"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2642,204 +4205,204 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="10" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="10" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="10" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="10" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="10" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="10" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2869,462 +4432,462 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="15" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="31">
+        <v>45945.0</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="18">
-        <v>45945.0</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="G3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="32"/>
     </row>
     <row r="4">
-      <c r="A4" s="17">
+      <c r="A4" s="33">
         <v>2.0</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="34">
         <f t="shared" ref="B4:B11" si="1">B3+7</f>
         <v>45952</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="F4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="35"/>
     </row>
     <row r="5">
-      <c r="A5" s="17">
+      <c r="A5" s="30">
         <v>3.0</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="31">
         <f t="shared" si="1"/>
         <v>45959</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="19"/>
+      <c r="F5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="32"/>
     </row>
     <row r="6">
-      <c r="A6" s="17">
+      <c r="A6" s="33">
         <v>4.0</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="34">
         <f t="shared" si="1"/>
         <v>45966</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="F6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="35"/>
     </row>
     <row r="7">
-      <c r="A7" s="17">
+      <c r="A7" s="30">
         <v>5.0</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="31">
         <f t="shared" si="1"/>
         <v>45973</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="19"/>
+      <c r="F7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="32"/>
     </row>
     <row r="8">
-      <c r="A8" s="17">
+      <c r="A8" s="33">
         <v>6.0</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="34">
         <f t="shared" si="1"/>
         <v>45980</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="19"/>
+      <c r="F8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="35"/>
     </row>
     <row r="9">
-      <c r="A9" s="17">
+      <c r="A9" s="30">
         <v>7.0</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="31">
         <f t="shared" si="1"/>
         <v>45987</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="17">
+      <c r="A10" s="33">
         <v>8.0</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="34">
         <f t="shared" si="1"/>
         <v>45994</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="19"/>
+      <c r="F10" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="35"/>
     </row>
     <row r="11">
-      <c r="A11" s="17">
+      <c r="A11" s="30">
         <v>9.0</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="31">
         <f t="shared" si="1"/>
         <v>46001</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="19"/>
+      <c r="F11" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="32"/>
     </row>
     <row r="12">
-      <c r="A12" s="17">
+      <c r="A12" s="33">
         <v>10.0</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="34">
         <v>46033.0</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="19"/>
+      <c r="F12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="35"/>
     </row>
     <row r="13">
-      <c r="A13" s="17">
+      <c r="A13" s="30">
         <v>11.0</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="31">
         <f t="shared" ref="B13:B17" si="2">B12+7</f>
         <v>46040</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="19"/>
+      <c r="F13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="32"/>
     </row>
     <row r="14">
-      <c r="A14" s="17">
+      <c r="A14" s="33">
         <v>12.0</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="34">
         <f t="shared" si="2"/>
         <v>46047</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="19"/>
+      <c r="F14" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="35"/>
     </row>
     <row r="15">
-      <c r="A15" s="17">
+      <c r="A15" s="30">
         <v>13.0</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="31">
         <f t="shared" si="2"/>
         <v>46054</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="19"/>
+      <c r="F15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="32"/>
     </row>
     <row r="16">
-      <c r="A16" s="17">
+      <c r="A16" s="33">
         <v>14.0</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="34">
         <f t="shared" si="2"/>
         <v>46061</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>82</v>
+      <c r="F16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="17">
+      <c r="A17" s="30">
         <v>15.0</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="31">
         <f t="shared" si="2"/>
         <v>46068</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="22" t="s">
+      <c r="F17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="17"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="24"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20">
-      <c r="A20" s="26"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="24"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="24"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3352,204 +4915,212 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="29" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31" t="s">
+    <row r="3">
+      <c r="A3" s="36" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="32" t="s">
+      <c r="B3" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="29" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31" t="s">
+    <row r="5">
+      <c r="A5" s="36" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="32" t="s">
+      <c r="B5" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="29" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="6"/>
+      <c r="B6" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31" t="s">
+    <row r="7">
+      <c r="A7" s="36" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="32" t="s">
+      <c r="B7" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="29" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
+    <row r="9">
+      <c r="A9" s="36" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="32" t="s">
+      <c r="B9" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="29" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="6"/>
+      <c r="B10" s="38" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31" t="s">
+    <row r="11">
+      <c r="A11" s="36" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="32" t="s">
+      <c r="B11" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="29" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="9"/>
+      <c r="B12" s="38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="33"/>
-      <c r="B12" s="31" t="s">
+    <row r="13">
+      <c r="A13" s="36" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="32" t="s">
+      <c r="B13" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="29" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="9"/>
+      <c r="B14" s="38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="33"/>
-      <c r="B14" s="31" t="s">
+    <row r="15">
+      <c r="A15" s="41" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="34" t="s">
+      <c r="B15" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="29" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="41" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="34" t="s">
+      <c r="B17" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="29" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="36" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="32" t="s">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="34"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="21" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="35" t="s">
+      <c r="B22" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="35" t="s">
+      <c r="B24" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="35" t="s">
+      <c r="B25" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>115</v>
-      </c>
+      <c r="A29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3576,23 +5147,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B3" s="46" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3622,88 +5193,88 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>121</v>
+      <c r="A1" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
     </row>
     <row r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
     </row>
     <row r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3731,142 +5302,142 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="42">
+      <c r="A3" s="51">
         <f t="shared" ref="A3:A16" si="1">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>124</v>
+      <c r="B3" s="52" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="42">
+      <c r="A4" s="51">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>124</v>
+      <c r="B4" s="52" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="42">
+      <c r="A5" s="51">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>125</v>
+      <c r="B5" s="53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="42">
+      <c r="A6" s="51">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>126</v>
+      <c r="B6" s="52" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42">
+      <c r="A7" s="51">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8">
-      <c r="A8" s="42">
+      <c r="A8" s="51">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="48"/>
     </row>
     <row r="9">
-      <c r="A9" s="42">
+      <c r="A9" s="51">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="48"/>
     </row>
     <row r="10">
-      <c r="A10" s="42">
+      <c r="A10" s="51">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11">
-      <c r="A11" s="42">
+      <c r="A11" s="51">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12">
-      <c r="A12" s="42">
+      <c r="A12" s="51">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13">
-      <c r="A13" s="42">
+      <c r="A13" s="51">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14">
-      <c r="A14" s="42">
+      <c r="A14" s="51">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15">
-      <c r="A15" s="42">
+      <c r="A15" s="51">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16">
-      <c r="A16" s="42">
+      <c r="A16" s="51">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17">
-      <c r="A17" s="42"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18">
-      <c r="A18" s="42"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="48"/>
     </row>
     <row r="19">
-      <c r="A19" s="43"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="48"/>
     </row>
     <row r="20">
-      <c r="A20" s="43"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="48"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3894,133 +5465,133 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>127</v>
+      <c r="A1" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="42">
+      <c r="A2" s="51">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3">
-      <c r="A3" s="42">
+      <c r="A3" s="51">
         <f t="shared" ref="A3:A16" si="1">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="52"/>
     </row>
     <row r="4">
-      <c r="A4" s="42">
+      <c r="A4" s="51">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="52"/>
     </row>
     <row r="5">
-      <c r="A5" s="42">
+      <c r="A5" s="51">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="42">
+      <c r="A6" s="51">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="52"/>
     </row>
     <row r="7">
-      <c r="A7" s="42">
+      <c r="A7" s="51">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8">
-      <c r="A8" s="42">
+      <c r="A8" s="51">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="48"/>
     </row>
     <row r="9">
-      <c r="A9" s="42">
+      <c r="A9" s="51">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="48"/>
     </row>
     <row r="10">
-      <c r="A10" s="42">
+      <c r="A10" s="51">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11">
-      <c r="A11" s="42">
+      <c r="A11" s="51">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12">
-      <c r="A12" s="42">
+      <c r="A12" s="51">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13">
-      <c r="A13" s="42">
+      <c r="A13" s="51">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14">
-      <c r="A14" s="42">
+      <c r="A14" s="51">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15">
-      <c r="A15" s="42">
+      <c r="A15" s="51">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16">
-      <c r="A16" s="42">
+      <c r="A16" s="51">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="48"/>
     </row>
     <row r="17">
-      <c r="A17" s="42"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18">
-      <c r="A18" s="42"/>
-      <c r="B18" s="44" t="s">
-        <v>128</v>
+      <c r="A18" s="51"/>
+      <c r="B18" s="55" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="43"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="48"/>
     </row>
     <row r="20">
-      <c r="A20" s="43"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="48"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4049,414 +5620,414 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="D1" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="E1" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="F1" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="G1" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="48" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="66" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="57">
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69">
         <f>sum(D8:D13)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="69">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="61" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="62">
+      <c r="A9" s="74">
         <v>1.0</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="57">
+      <c r="B9" s="66"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69">
         <f>sum(D16:D21)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="69">
         <f>$D$5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="69">
         <f>sum(F16:F21)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="69">
         <f>$D$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49">
+      <c r="A10" s="60">
         <f t="shared" ref="A10:A11" si="1">A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="63">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="75">
         <f>sum(D22:D27)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="75">
         <f t="shared" ref="E10:E12" si="2">E9-D9</f>
         <v>0</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="75">
         <f>sum(F22:F27)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="75">
         <f t="shared" ref="G10:G12" si="3">G9-F9</f>
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="62">
+      <c r="A11" s="74">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="57">
+      <c r="B11" s="66"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69">
         <f>sum(D28:D33)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="69">
         <f>sum(F28:F33)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="63">
+      <c r="A12" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="63">
+      <c r="F12" s="62"/>
+      <c r="G12" s="75">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="62"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14">
-      <c r="A14" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
+      <c r="A14" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16">
-      <c r="A16" s="69">
+      <c r="A16" s="81">
         <f t="shared" ref="A16:B16" si="4">A9</f>
         <v>1</v>
       </c>
-      <c r="B16" s="70" t="str">
+      <c r="B16" s="82" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
     </row>
     <row r="17">
-      <c r="A17" s="62"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
     </row>
     <row r="18">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="50"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="61"/>
     </row>
     <row r="19">
-      <c r="A19" s="62"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20">
-      <c r="A20" s="73"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="65"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="77"/>
     </row>
     <row r="21">
-      <c r="A21" s="62"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22">
-      <c r="A22" s="69">
+      <c r="A22" s="81">
         <f t="shared" ref="A22:B22" si="5">A10</f>
         <v>2</v>
       </c>
-      <c r="B22" s="70" t="str">
+      <c r="B22" s="82" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
     </row>
     <row r="23">
-      <c r="A23" s="62"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
     </row>
     <row r="24">
-      <c r="A24" s="73"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="65"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="77"/>
     </row>
     <row r="25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="26">
-      <c r="A26" s="73"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="65"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27">
-      <c r="A27" s="62"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28">
-      <c r="A28" s="69">
+      <c r="A28" s="81">
         <f t="shared" ref="A28:B28" si="6">A11</f>
         <v>3</v>
       </c>
-      <c r="B28" s="70" t="str">
+      <c r="B28" s="82" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29">
-      <c r="A29" s="62"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
     </row>
     <row r="30">
-      <c r="A30" s="73"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
     </row>
     <row r="31">
-      <c r="A31" s="62"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
     </row>
     <row r="32">
-      <c r="A32" s="73"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
     </row>
     <row r="33">
-      <c r="A33" s="62"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="69"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34">
-      <c r="A34" s="73"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
